--- a/custom_export/nilaitest.xlsx
+++ b/custom_export/nilaitest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kp_websiteECC\views\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kp_websiteECC\custom_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE5D45E-1681-4E9F-95A5-5C2DB19AF3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5DFC75-BFB0-404D-9E78-2C94E65F84EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NRP</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>NILAI</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
   </si>
 </sst>
 </file>
@@ -85,7 +88,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,18 +371,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,6 +394,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
